--- a/ig/nr-update-fonc-spec/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/nr-update-fonc-spec/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T12:16:18+00:00</t>
+    <t>2023-08-24T12:18:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-fonc-spec/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/nr-update-fonc-spec/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T12:18:45+00:00</t>
+    <t>2023-08-24T12:44:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-fonc-spec/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/nr-update-fonc-spec/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T12:44:09+00:00</t>
+    <t>2023-08-24T14:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-fonc-spec/StructureDefinition-cds-bundle-response-recherche.xlsx
+++ b/ig/nr-update-fonc-spec/StructureDefinition-cds-bundle-response-recherche.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T14:55:51+00:00</t>
+    <t>2023-08-24T14:58:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
